--- a/data/inst_3.xlsx
+++ b/data/inst_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD43365-E368-4E4B-AEBD-66B70418ED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03427E3-5AA4-4E36-BBB9-3A7F53FCBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,323 +1650,71 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>823</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>322</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>218</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>823</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>240</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>220</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>374</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>212</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>176</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>198</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>488</v>
-      </c>
-      <c r="D30">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_3.xlsx
+++ b/data/inst_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03427E3-5AA4-4E36-BBB9-3A7F53FCBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30384B4-10AA-4C9E-B54F-FF8E431F2326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>

--- a/data/inst_3.xlsx
+++ b/data/inst_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30384B4-10AA-4C9E-B54F-FF8E431F2326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6706F5-72C5-413B-BFDC-60B000E1F544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -788,7 +788,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D2:D7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1636,16 +1636,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,10 +1653,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1678,43 +1678,15 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>218</v>
+        <v>823</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>823</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_3.xlsx
+++ b/data/inst_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6706F5-72C5-413B-BFDC-60B000E1F544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF27B0F-1F4C-4591-ADB2-4E96714CA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>823</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>0</v>

--- a/data/inst_3.xlsx
+++ b/data/inst_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF27B0F-1F4C-4591-ADB2-4E96714CA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A350DE2-66A5-49C4-8C2F-8E37907C61C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,42 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -166,10 +202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,18 +824,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +883,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +891,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +907,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,12 +924,30 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <f>SUM(comp_quantity_inst1!C2:C6)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f>SUM(comp_quantity_inst1!C7:C10)</f>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -906,9 +963,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +1031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1542,152 +1599,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
         <v>68</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
         <v>28</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>218</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>123</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_3.xlsx
+++ b/data/inst_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A350DE2-66A5-49C4-8C2F-8E37907C61C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF27B0F-1F4C-4591-ADB2-4E96714CA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -125,42 +125,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>no_req_total</t>
-  </si>
-  <si>
-    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -202,13 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,18 +785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -843,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -851,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -859,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -867,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -875,7 +836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -883,7 +844,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -891,7 +852,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -899,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -907,7 +868,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -915,7 +876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -924,30 +885,12 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <f>SUM(comp_quantity_inst1!C2:C6)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <f>SUM(comp_quantity_inst1!C7:C10)</f>
-        <v>387</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -963,9 +906,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -976,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -987,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -998,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1207,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1317,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1328,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1383,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1394,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1405,7 +1348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1548,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +1513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1581,7 +1524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1599,182 +1542,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>218</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C10">
+        <v>123</v>
+      </c>
+      <c r="D10">
         <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>218</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>123</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_3.xlsx
+++ b/data/inst_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF27B0F-1F4C-4591-ADB2-4E96714CA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CBEDA3-4FEF-43C3-AE73-ADB123AD2DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -785,18 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +858,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +874,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +882,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,12 +891,28 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -906,9 +928,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1544,13 +1566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1620,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
